--- a/list-pegawai.xlsx
+++ b/list-pegawai.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -512,7 +512,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -732,11 +732,11 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>I Made Sudarmayadnya,  S.Si</t>
+          <t>I Made Sudarma Yadnya,  S.Si</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -752,7 +752,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
